--- a/dist/data/profiles/xlsx/bluff/profile 36-2 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 36-2 graph.xlsx
@@ -21877,11 +21877,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="8370349"/>
-        <c:axId val="90088108"/>
+        <c:axId val="36906006"/>
+        <c:axId val="57960089"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8370349"/>
+        <c:axId val="36906006"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21916,12 +21916,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90088108"/>
+        <c:crossAx val="57960089"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90088108"/>
+        <c:axId val="57960089"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21965,7 +21965,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8370349"/>
+        <c:crossAx val="36906006"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
